--- a/results/linear_regression /all_weights.xlsx
+++ b/results/linear_regression /all_weights.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michellemeier/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michellemeier/Documents/semesterproject1/ARCHS4/results/linear_regression /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5AD6226-444C-0046-92BA-31D1DD1AFAD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F61876-9846-604C-92D2-E1452BA6EB71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14560" activeTab="7" xr2:uid="{096E6756-6C35-D840-8877-1976246821D1}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14520" activeTab="6" xr2:uid="{096E6756-6C35-D840-8877-1976246821D1}"/>
   </bookViews>
   <sheets>
     <sheet name="overview" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="100">
   <si>
     <t>pi3k</t>
   </si>
@@ -328,6 +328,18 @@
   </si>
   <si>
     <t xml:space="preserve">-0.03 ** </t>
+  </si>
+  <si>
+    <t>gendermale</t>
+  </si>
+  <si>
+    <t>ethnicitynot_hispanic_or_latino</t>
+  </si>
+  <si>
+    <t>treatment_or_therapyyes</t>
+  </si>
+  <si>
+    <t>prior_malignancyyes</t>
   </si>
 </sst>
 </file>
@@ -500,9 +512,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -528,9 +537,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -546,9 +552,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -557,6 +560,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -588,7 +600,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>277480</xdr:colOff>
+          <xdr:colOff>279400</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>88900</xdr:rowOff>
         </xdr:to>
@@ -600,7 +612,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04927F48-5B3F-AA4A-9F8D-013AB883DE9E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -621,23 +633,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -658,7 +657,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A481840C-1E12-5948-8D8A-47BFAE4FFD61}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2534,13 +2533,13 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2561,1236 +2560,1236 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" ht="17" thickBot="1"/>
     <row r="3" spans="1:7" ht="17" thickBot="1">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="14" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" thickBot="1">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="17" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17" thickBot="1">
-      <c r="A5" s="19"/>
-      <c r="B5" s="17">
-        <v>0</v>
-      </c>
-      <c r="C5" s="17">
-        <v>-0.02</v>
-      </c>
-      <c r="D5" s="17">
+      <c r="A5" s="18"/>
+      <c r="B5" s="16">
+        <v>0</v>
+      </c>
+      <c r="C5" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="D5" s="16">
         <v>-0.04</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="16">
         <v>-0.03</v>
       </c>
-      <c r="F5" s="17">
-        <v>-0.02</v>
-      </c>
-      <c r="G5" s="18">
+      <c r="F5" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="G5" s="17">
         <v>-0.03</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17" thickBot="1">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="17">
-        <v>0</v>
-      </c>
-      <c r="F6" s="17" t="s">
+      <c r="E6" s="16">
+        <v>0</v>
+      </c>
+      <c r="F6" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17" thickBot="1">
-      <c r="A7" s="19"/>
-      <c r="B7" s="17">
-        <v>0</v>
-      </c>
-      <c r="C7" s="17">
-        <v>0</v>
-      </c>
-      <c r="D7" s="17">
-        <v>0</v>
-      </c>
-      <c r="E7" s="17">
-        <v>0</v>
-      </c>
-      <c r="F7" s="17">
-        <v>0</v>
-      </c>
-      <c r="G7" s="18" t="s">
+      <c r="A7" s="18"/>
+      <c r="B7" s="16">
+        <v>0</v>
+      </c>
+      <c r="C7" s="16">
+        <v>0</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0</v>
+      </c>
+      <c r="E7" s="16">
+        <v>0</v>
+      </c>
+      <c r="F7" s="16">
+        <v>0</v>
+      </c>
+      <c r="G7" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17" thickBot="1">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="17">
-        <v>0</v>
-      </c>
-      <c r="C8" s="17">
-        <v>0</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="17">
-        <v>0</v>
-      </c>
-      <c r="F8" s="17" t="s">
+      <c r="B8" s="16">
+        <v>0</v>
+      </c>
+      <c r="C8" s="16">
+        <v>0</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="16">
+        <v>0</v>
+      </c>
+      <c r="F8" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="17" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17" thickBot="1">
-      <c r="A9" s="19"/>
-      <c r="B9" s="17">
-        <v>0</v>
-      </c>
-      <c r="C9" s="17">
-        <v>0</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="17">
-        <v>0</v>
-      </c>
-      <c r="F9" s="17">
-        <v>0</v>
-      </c>
-      <c r="G9" s="18">
+      <c r="A9" s="18"/>
+      <c r="B9" s="16">
+        <v>0</v>
+      </c>
+      <c r="C9" s="16">
+        <v>0</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="16">
+        <v>0</v>
+      </c>
+      <c r="F9" s="16">
+        <v>0</v>
+      </c>
+      <c r="G9" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17" thickBot="1">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="17">
-        <v>0</v>
-      </c>
-      <c r="C10" s="17" t="s">
+      <c r="B10" s="16">
+        <v>0</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="18" t="s">
+      <c r="F10" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17" thickBot="1">
-      <c r="A11" s="19"/>
-      <c r="B11" s="17">
-        <v>0</v>
-      </c>
-      <c r="C11" s="17">
-        <v>0</v>
-      </c>
-      <c r="D11" s="17">
-        <v>0</v>
-      </c>
-      <c r="E11" s="17">
-        <v>0</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="18">
+      <c r="A11" s="18"/>
+      <c r="B11" s="16">
+        <v>0</v>
+      </c>
+      <c r="C11" s="16">
+        <v>0</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0</v>
+      </c>
+      <c r="E11" s="16">
+        <v>0</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17" thickBot="1">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="17">
-        <v>0</v>
-      </c>
-      <c r="D12" s="17">
-        <v>0.01</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="17" t="s">
+      <c r="C12" s="16">
+        <v>0</v>
+      </c>
+      <c r="D12" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17" thickBot="1">
-      <c r="A13" s="19"/>
-      <c r="B13" s="17">
-        <v>0</v>
-      </c>
-      <c r="C13" s="17">
-        <v>0</v>
-      </c>
-      <c r="D13" s="17">
-        <v>0</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="17">
-        <v>0</v>
-      </c>
-      <c r="G13" s="18">
+      <c r="A13" s="18"/>
+      <c r="B13" s="16">
+        <v>0</v>
+      </c>
+      <c r="C13" s="16">
+        <v>0</v>
+      </c>
+      <c r="D13" s="16">
+        <v>0</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="16">
+        <v>0</v>
+      </c>
+      <c r="G13" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17" thickBot="1">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="17">
-        <v>0</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="17">
-        <v>0</v>
-      </c>
-      <c r="E14" s="17">
-        <v>0</v>
-      </c>
-      <c r="F14" s="17" t="s">
+      <c r="B14" s="16">
+        <v>0</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="16">
+        <v>0</v>
+      </c>
+      <c r="E14" s="16">
+        <v>0</v>
+      </c>
+      <c r="F14" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="17" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="17" thickBot="1">
-      <c r="A15" s="19"/>
-      <c r="B15" s="17">
-        <v>0</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="17">
-        <v>0</v>
-      </c>
-      <c r="E15" s="17">
-        <v>0</v>
-      </c>
-      <c r="F15" s="17">
-        <v>0</v>
-      </c>
-      <c r="G15" s="18">
+      <c r="A15" s="18"/>
+      <c r="B15" s="16">
+        <v>0</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="16">
+        <v>0</v>
+      </c>
+      <c r="E15" s="16">
+        <v>0</v>
+      </c>
+      <c r="F15" s="16">
+        <v>0</v>
+      </c>
+      <c r="G15" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17" thickBot="1">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="C16" s="17">
-        <v>0</v>
-      </c>
-      <c r="D16" s="17" t="s">
+      <c r="B16" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="C16" s="16">
+        <v>0</v>
+      </c>
+      <c r="D16" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="17">
-        <v>0</v>
-      </c>
-      <c r="F16" s="17">
-        <v>0</v>
-      </c>
-      <c r="G16" s="18" t="s">
+      <c r="E16" s="16">
+        <v>0</v>
+      </c>
+      <c r="F16" s="16">
+        <v>0</v>
+      </c>
+      <c r="G16" s="17" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="17" thickBot="1">
-      <c r="A17" s="19"/>
-      <c r="B17" s="17">
+      <c r="A17" s="18"/>
+      <c r="B17" s="16">
         <v>-0.03</v>
       </c>
-      <c r="C17" s="17">
-        <v>0</v>
-      </c>
-      <c r="D17" s="17">
-        <v>0</v>
-      </c>
-      <c r="E17" s="17">
-        <v>0</v>
-      </c>
-      <c r="F17" s="17">
-        <v>0</v>
-      </c>
-      <c r="G17" s="18">
+      <c r="C17" s="16">
+        <v>0</v>
+      </c>
+      <c r="D17" s="16">
+        <v>0</v>
+      </c>
+      <c r="E17" s="16">
+        <v>0</v>
+      </c>
+      <c r="F17" s="16">
+        <v>0</v>
+      </c>
+      <c r="G17" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="17" thickBot="1">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="18" t="s">
+      <c r="B18" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="17" thickBot="1">
-      <c r="A19" s="19"/>
-      <c r="B19" s="17">
+      <c r="A19" s="18"/>
+      <c r="B19" s="16">
         <v>-0.03</v>
       </c>
-      <c r="C19" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="18" t="s">
+      <c r="C19" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17" thickBot="1">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="C20" s="17">
-        <v>0</v>
-      </c>
-      <c r="D20" s="17">
+      <c r="B20" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="C20" s="16">
+        <v>0</v>
+      </c>
+      <c r="D20" s="16">
         <v>-0.04</v>
       </c>
-      <c r="E20" s="17">
-        <v>0.01</v>
-      </c>
-      <c r="F20" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="G20" s="18">
+      <c r="E20" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="F20" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="G20" s="17">
         <v>0.04</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="17" thickBot="1">
-      <c r="A21" s="19"/>
-      <c r="B21" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="C21" s="17">
-        <v>-0.02</v>
-      </c>
-      <c r="D21" s="17">
+      <c r="A21" s="18"/>
+      <c r="B21" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="C21" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="D21" s="16">
         <v>-0.04</v>
       </c>
-      <c r="E21" s="17">
-        <v>-0.02</v>
-      </c>
-      <c r="F21" s="17">
-        <v>-0.02</v>
-      </c>
-      <c r="G21" s="18">
+      <c r="E21" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="F21" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="G21" s="17">
         <v>-0.03</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="25" thickBot="1">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="17">
-        <v>0</v>
-      </c>
-      <c r="C22" s="17">
-        <v>0</v>
-      </c>
-      <c r="D22" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="E22" s="17">
-        <v>0</v>
-      </c>
-      <c r="F22" s="17">
-        <v>0.01</v>
-      </c>
-      <c r="G22" s="18">
+      <c r="B22" s="16">
+        <v>0</v>
+      </c>
+      <c r="C22" s="16">
+        <v>0</v>
+      </c>
+      <c r="D22" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="E22" s="16">
+        <v>0</v>
+      </c>
+      <c r="F22" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="G22" s="17">
         <v>0.01</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="17" thickBot="1">
-      <c r="A23" s="19"/>
-      <c r="B23" s="17">
-        <v>0</v>
-      </c>
-      <c r="C23" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="D23" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="E23" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="F23" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="G23" s="18">
+      <c r="A23" s="18"/>
+      <c r="B23" s="16">
+        <v>0</v>
+      </c>
+      <c r="C23" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="D23" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="E23" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="F23" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="G23" s="17">
         <v>-0.01</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="17" thickBot="1">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="17">
-        <v>0</v>
-      </c>
-      <c r="C24" s="17" t="s">
+      <c r="B24" s="16">
+        <v>0</v>
+      </c>
+      <c r="C24" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="17">
-        <v>0</v>
-      </c>
-      <c r="E24" s="17">
-        <v>0</v>
-      </c>
-      <c r="F24" s="17">
-        <v>0.01</v>
-      </c>
-      <c r="G24" s="18">
+      <c r="D24" s="16">
+        <v>0</v>
+      </c>
+      <c r="E24" s="16">
+        <v>0</v>
+      </c>
+      <c r="F24" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="G24" s="17">
         <v>-0.02</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="17" thickBot="1">
-      <c r="A25" s="19"/>
-      <c r="B25" s="17">
-        <v>0</v>
-      </c>
-      <c r="C25" s="17">
-        <v>0</v>
-      </c>
-      <c r="D25" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="E25" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="F25" s="17">
-        <v>0</v>
-      </c>
-      <c r="G25" s="18">
+      <c r="A25" s="18"/>
+      <c r="B25" s="16">
+        <v>0</v>
+      </c>
+      <c r="C25" s="16">
+        <v>0</v>
+      </c>
+      <c r="D25" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="E25" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="F25" s="16">
+        <v>0</v>
+      </c>
+      <c r="G25" s="17">
         <v>-0.01</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="17" thickBot="1">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="17">
-        <v>0</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="18" t="s">
+      <c r="B26" s="16">
+        <v>0</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17" thickBot="1">
-      <c r="A27" s="19"/>
-      <c r="B27" s="17">
-        <v>0</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="18" t="s">
+      <c r="A27" s="18"/>
+      <c r="B27" s="16">
+        <v>0</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="17" thickBot="1">
-      <c r="A28" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="17">
-        <v>0</v>
-      </c>
-      <c r="D28" s="17">
-        <v>0</v>
-      </c>
-      <c r="E28" s="17" t="s">
+      <c r="A28" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="16">
+        <v>0</v>
+      </c>
+      <c r="D28" s="16">
+        <v>0</v>
+      </c>
+      <c r="E28" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="F28" s="17">
-        <v>0</v>
-      </c>
-      <c r="G28" s="18" t="s">
+      <c r="F28" s="16">
+        <v>0</v>
+      </c>
+      <c r="G28" s="17" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="17" thickBot="1">
-      <c r="A29" s="19"/>
-      <c r="B29" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="17">
-        <v>0</v>
-      </c>
-      <c r="D29" s="17">
-        <v>0</v>
-      </c>
-      <c r="E29" s="17">
-        <v>0</v>
-      </c>
-      <c r="F29" s="17">
-        <v>0</v>
-      </c>
-      <c r="G29" s="18">
+      <c r="A29" s="18"/>
+      <c r="B29" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="16">
+        <v>0</v>
+      </c>
+      <c r="D29" s="16">
+        <v>0</v>
+      </c>
+      <c r="E29" s="16">
+        <v>0</v>
+      </c>
+      <c r="F29" s="16">
+        <v>0</v>
+      </c>
+      <c r="G29" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="17" thickBot="1">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="17">
-        <v>0</v>
-      </c>
-      <c r="D30" s="17">
+      <c r="B30" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="16">
+        <v>0</v>
+      </c>
+      <c r="D30" s="16">
         <v>0.02</v>
       </c>
-      <c r="E30" s="17">
-        <v>0.01</v>
-      </c>
-      <c r="F30" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="G30" s="18">
+      <c r="E30" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="F30" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="G30" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="17" thickBot="1">
-      <c r="A31" s="19"/>
-      <c r="B31" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="17">
-        <v>0</v>
-      </c>
-      <c r="D31" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="E31" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="F31" s="17">
-        <v>0</v>
-      </c>
-      <c r="G31" s="18">
+      <c r="A31" s="18"/>
+      <c r="B31" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="16">
+        <v>0</v>
+      </c>
+      <c r="D31" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="E31" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="F31" s="16">
+        <v>0</v>
+      </c>
+      <c r="G31" s="17">
         <v>-0.01</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="25" thickBot="1">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="17">
-        <v>0</v>
-      </c>
-      <c r="D32" s="17">
+      <c r="B32" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="16">
+        <v>0</v>
+      </c>
+      <c r="D32" s="16">
         <v>-0.03</v>
       </c>
-      <c r="E32" s="17">
-        <v>-0.02</v>
-      </c>
-      <c r="F32" s="17">
+      <c r="E32" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="F32" s="16">
         <v>0.02</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G32" s="17">
         <v>0.02</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="17" thickBot="1">
-      <c r="A33" s="19"/>
-      <c r="B33" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="17">
-        <v>-0.02</v>
-      </c>
-      <c r="D33" s="17">
+      <c r="A33" s="18"/>
+      <c r="B33" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="D33" s="16">
         <v>-0.04</v>
       </c>
-      <c r="E33" s="17">
-        <v>-0.02</v>
-      </c>
-      <c r="F33" s="17">
-        <v>-0.02</v>
-      </c>
-      <c r="G33" s="18">
+      <c r="E33" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="F33" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="G33" s="17">
         <v>-0.03</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="25" thickBot="1">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B34" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="17">
-        <v>0</v>
-      </c>
-      <c r="D34" s="17">
+      <c r="B34" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="16">
+        <v>0</v>
+      </c>
+      <c r="D34" s="16">
         <v>-0.04</v>
       </c>
-      <c r="E34" s="17">
-        <v>-0.02</v>
-      </c>
-      <c r="F34" s="17">
+      <c r="E34" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="F34" s="16">
         <v>0.02</v>
       </c>
-      <c r="G34" s="18">
+      <c r="G34" s="17">
         <v>0.01</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="17" thickBot="1">
-      <c r="A35" s="19"/>
-      <c r="B35" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="17">
-        <v>-0.02</v>
-      </c>
-      <c r="D35" s="17">
+      <c r="A35" s="18"/>
+      <c r="B35" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="D35" s="16">
         <v>-0.04</v>
       </c>
-      <c r="E35" s="17">
-        <v>-0.02</v>
-      </c>
-      <c r="F35" s="17">
-        <v>-0.02</v>
-      </c>
-      <c r="G35" s="18">
+      <c r="E35" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="F35" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="G35" s="17">
         <v>-0.03</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="25" thickBot="1">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B36" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" s="17">
-        <v>0</v>
-      </c>
-      <c r="D36" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="E36" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="F36" s="17">
-        <v>0</v>
-      </c>
-      <c r="G36" s="18">
+      <c r="B36" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="16">
+        <v>0</v>
+      </c>
+      <c r="D36" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="E36" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="F36" s="16">
+        <v>0</v>
+      </c>
+      <c r="G36" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="17" thickBot="1">
-      <c r="A37" s="19"/>
-      <c r="B37" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="17">
-        <v>0</v>
-      </c>
-      <c r="D37" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="E37" s="17">
-        <v>0</v>
-      </c>
-      <c r="F37" s="17">
-        <v>0</v>
-      </c>
-      <c r="G37" s="18">
+      <c r="A37" s="18"/>
+      <c r="B37" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="16">
+        <v>0</v>
+      </c>
+      <c r="D37" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="E37" s="16">
+        <v>0</v>
+      </c>
+      <c r="F37" s="16">
+        <v>0</v>
+      </c>
+      <c r="G37" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="25" thickBot="1">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" s="17">
-        <v>0</v>
-      </c>
-      <c r="D38" s="17">
-        <v>0</v>
-      </c>
-      <c r="E38" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="F38" s="17">
-        <v>0.01</v>
-      </c>
-      <c r="G38" s="18">
+      <c r="B38" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="16">
+        <v>0</v>
+      </c>
+      <c r="D38" s="16">
+        <v>0</v>
+      </c>
+      <c r="E38" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="F38" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="G38" s="17">
         <v>-0.01</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="17" thickBot="1">
-      <c r="A39" s="19"/>
-      <c r="B39" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="D39" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="E39" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="F39" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="G39" s="18">
+      <c r="A39" s="18"/>
+      <c r="B39" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="D39" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="E39" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="F39" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="G39" s="17">
         <v>-0.01</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="25" thickBot="1">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B40" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C40" s="17">
-        <v>0.01</v>
-      </c>
-      <c r="D40" s="17">
+      <c r="B40" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="D40" s="16">
         <v>-0.03</v>
       </c>
-      <c r="E40" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="F40" s="17">
-        <v>0</v>
-      </c>
-      <c r="G40" s="18">
+      <c r="E40" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="F40" s="16">
+        <v>0</v>
+      </c>
+      <c r="G40" s="17">
         <v>-0.03</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="17" thickBot="1">
-      <c r="A41" s="19"/>
-      <c r="B41" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41" s="17">
-        <v>-0.02</v>
-      </c>
-      <c r="D41" s="17">
+      <c r="A41" s="18"/>
+      <c r="B41" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="D41" s="16">
         <v>-0.04</v>
       </c>
-      <c r="E41" s="17">
-        <v>-0.02</v>
-      </c>
-      <c r="F41" s="17">
-        <v>-0.02</v>
-      </c>
-      <c r="G41" s="18">
+      <c r="E41" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="F41" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="G41" s="17">
         <v>-0.03</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="25" thickBot="1">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B42" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C42" s="17">
-        <v>0</v>
-      </c>
-      <c r="D42" s="17">
-        <v>0</v>
-      </c>
-      <c r="E42" s="17">
-        <v>0</v>
-      </c>
-      <c r="F42" s="17">
-        <v>0</v>
-      </c>
-      <c r="G42" s="18">
+      <c r="B42" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="16">
+        <v>0</v>
+      </c>
+      <c r="D42" s="16">
+        <v>0</v>
+      </c>
+      <c r="E42" s="16">
+        <v>0</v>
+      </c>
+      <c r="F42" s="16">
+        <v>0</v>
+      </c>
+      <c r="G42" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="17" thickBot="1">
-      <c r="A43" s="19"/>
-      <c r="B43" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C43" s="17">
-        <v>0</v>
-      </c>
-      <c r="D43" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="E43" s="17">
-        <v>0</v>
-      </c>
-      <c r="F43" s="17">
-        <v>0</v>
-      </c>
-      <c r="G43" s="18">
+      <c r="A43" s="18"/>
+      <c r="B43" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="16">
+        <v>0</v>
+      </c>
+      <c r="D43" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="E43" s="16">
+        <v>0</v>
+      </c>
+      <c r="F43" s="16">
+        <v>0</v>
+      </c>
+      <c r="G43" s="17">
         <v>-0.01</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="25" thickBot="1">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B44" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C44" s="17">
-        <v>0</v>
-      </c>
-      <c r="D44" s="17">
-        <v>0</v>
-      </c>
-      <c r="E44" s="17">
-        <v>0</v>
-      </c>
-      <c r="F44" s="17">
-        <v>0</v>
-      </c>
-      <c r="G44" s="18">
+      <c r="B44" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="16">
+        <v>0</v>
+      </c>
+      <c r="D44" s="16">
+        <v>0</v>
+      </c>
+      <c r="E44" s="16">
+        <v>0</v>
+      </c>
+      <c r="F44" s="16">
+        <v>0</v>
+      </c>
+      <c r="G44" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="17" thickBot="1">
-      <c r="A45" s="19"/>
-      <c r="B45" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" s="17">
-        <v>0</v>
-      </c>
-      <c r="D45" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="E45" s="17">
-        <v>0</v>
-      </c>
-      <c r="F45" s="17">
-        <v>0</v>
-      </c>
-      <c r="G45" s="18">
+      <c r="A45" s="18"/>
+      <c r="B45" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="16">
+        <v>0</v>
+      </c>
+      <c r="D45" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="E45" s="16">
+        <v>0</v>
+      </c>
+      <c r="F45" s="16">
+        <v>0</v>
+      </c>
+      <c r="G45" s="17">
         <v>-0.01</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="25" thickBot="1">
-      <c r="A46" s="16" t="s">
+      <c r="A46" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B46" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C46" s="17">
-        <v>0</v>
-      </c>
-      <c r="D46" s="17">
-        <v>0</v>
-      </c>
-      <c r="E46" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="F46" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="G46" s="18">
+      <c r="B46" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="16">
+        <v>0</v>
+      </c>
+      <c r="D46" s="16">
+        <v>0</v>
+      </c>
+      <c r="E46" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="F46" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="G46" s="17">
         <v>0.01</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="17" thickBot="1">
-      <c r="A47" s="19"/>
-      <c r="B47" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C47" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="D47" s="17">
+      <c r="A47" s="18"/>
+      <c r="B47" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="D47" s="16">
         <v>-0.03</v>
       </c>
-      <c r="E47" s="17">
-        <v>-0.02</v>
-      </c>
-      <c r="F47" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="G47" s="18">
+      <c r="E47" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="F47" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="G47" s="17">
         <v>-0.02</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="25" thickBot="1">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B48" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C48" s="17">
-        <v>0.01</v>
-      </c>
-      <c r="D48" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="E48" s="17">
-        <v>0</v>
-      </c>
-      <c r="F48" s="17">
-        <v>0</v>
-      </c>
-      <c r="G48" s="18">
+      <c r="B48" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="D48" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="E48" s="16">
+        <v>0</v>
+      </c>
+      <c r="F48" s="16">
+        <v>0</v>
+      </c>
+      <c r="G48" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="17" thickBot="1">
-      <c r="A49" s="19"/>
-      <c r="B49" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" s="17">
-        <v>0</v>
-      </c>
-      <c r="D49" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="E49" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="F49" s="17">
-        <v>0</v>
-      </c>
-      <c r="G49" s="18">
+      <c r="A49" s="18"/>
+      <c r="B49" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="16">
+        <v>0</v>
+      </c>
+      <c r="D49" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="E49" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="F49" s="16">
+        <v>0</v>
+      </c>
+      <c r="G49" s="17">
         <v>-0.01</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="25" thickBot="1">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B50" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C50" s="17">
-        <v>0.01</v>
-      </c>
-      <c r="D50" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="E50" s="17">
-        <v>0.01</v>
-      </c>
-      <c r="F50" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="G50" s="18">
+      <c r="B50" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="D50" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="E50" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="F50" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="G50" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="17" thickBot="1">
-      <c r="A51" s="19"/>
-      <c r="B51" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C51" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="D51" s="17">
-        <v>-0.02</v>
-      </c>
-      <c r="E51" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="F51" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="G51" s="18">
+      <c r="A51" s="18"/>
+      <c r="B51" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="D51" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="E51" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="F51" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="G51" s="17">
         <v>-0.02</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="17" thickBot="1">
-      <c r="A52" s="16" t="s">
+      <c r="A52" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B52" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C52" s="17">
-        <v>0.01</v>
-      </c>
-      <c r="D52" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="E52" s="17">
-        <v>0.01</v>
-      </c>
-      <c r="F52" s="17">
-        <v>0</v>
-      </c>
-      <c r="G52" s="18">
+      <c r="B52" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="D52" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="E52" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="F52" s="16">
+        <v>0</v>
+      </c>
+      <c r="G52" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="17" thickBot="1">
-      <c r="A53" s="19"/>
-      <c r="B53" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C53" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="D53" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="E53" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="F53" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="G53" s="18">
+      <c r="A53" s="18"/>
+      <c r="B53" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="D53" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="E53" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="F53" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="G53" s="17">
         <v>-0.01</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="25" thickBot="1">
-      <c r="A54" s="16" t="s">
+      <c r="A54" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B54" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C54" s="17">
-        <v>0</v>
-      </c>
-      <c r="D54" s="17">
-        <v>0</v>
-      </c>
-      <c r="E54" s="17">
-        <v>0</v>
-      </c>
-      <c r="F54" s="17">
-        <v>0</v>
-      </c>
-      <c r="G54" s="18">
+      <c r="B54" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" s="16">
+        <v>0</v>
+      </c>
+      <c r="D54" s="16">
+        <v>0</v>
+      </c>
+      <c r="E54" s="16">
+        <v>0</v>
+      </c>
+      <c r="F54" s="16">
+        <v>0</v>
+      </c>
+      <c r="G54" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="17" thickBot="1">
-      <c r="A55" s="19"/>
-      <c r="B55" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C55" s="17">
-        <v>0</v>
-      </c>
-      <c r="D55" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="E55" s="17">
-        <v>0</v>
-      </c>
-      <c r="F55" s="17">
-        <v>0</v>
-      </c>
-      <c r="G55" s="18">
+      <c r="A55" s="18"/>
+      <c r="B55" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" s="16">
+        <v>0</v>
+      </c>
+      <c r="D55" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="E55" s="16">
+        <v>0</v>
+      </c>
+      <c r="F55" s="16">
+        <v>0</v>
+      </c>
+      <c r="G55" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="17" thickBot="1">
-      <c r="A56" s="16" t="s">
+      <c r="A56" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B56" s="17">
+      <c r="B56" s="16">
         <v>313</v>
       </c>
-      <c r="C56" s="17">
+      <c r="C56" s="16">
         <v>262</v>
       </c>
-      <c r="D56" s="17">
+      <c r="D56" s="16">
         <v>262</v>
       </c>
-      <c r="E56" s="17">
+      <c r="E56" s="16">
         <v>262</v>
       </c>
-      <c r="F56" s="17">
+      <c r="F56" s="16">
         <v>262</v>
       </c>
-      <c r="G56" s="18">
+      <c r="G56" s="17">
         <v>262</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="17" thickBot="1">
-      <c r="A57" s="16" t="s">
+      <c r="A57" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B57" s="17">
+      <c r="B57" s="16">
         <v>0.3</v>
       </c>
-      <c r="C57" s="17">
+      <c r="C57" s="16">
         <v>0.34</v>
       </c>
-      <c r="D57" s="17">
+      <c r="D57" s="16">
         <v>0.45</v>
       </c>
-      <c r="E57" s="17">
+      <c r="E57" s="16">
         <v>0.28999999999999998</v>
       </c>
-      <c r="F57" s="17">
+      <c r="F57" s="16">
         <v>0.54</v>
       </c>
-      <c r="G57" s="18">
+      <c r="G57" s="17">
         <v>0.37</v>
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="21"/>
-      <c r="B58" s="21"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="21"/>
+      <c r="A58" s="29"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3811,1269 +3810,1269 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" ht="17" thickBot="1"/>
     <row r="3" spans="1:7" ht="17" thickBot="1">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="14" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" thickBot="1">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="17" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17" thickBot="1">
-      <c r="A5" s="19"/>
-      <c r="B5" s="17">
-        <v>0</v>
-      </c>
-      <c r="C5" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="D5" s="17">
+      <c r="A5" s="18"/>
+      <c r="B5" s="16">
+        <v>0</v>
+      </c>
+      <c r="C5" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="D5" s="16">
         <v>-0.03</v>
       </c>
-      <c r="E5" s="17">
-        <v>-0.02</v>
-      </c>
-      <c r="F5" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="G5" s="18">
+      <c r="E5" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="F5" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="G5" s="17">
         <v>-0.02</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17" thickBot="1">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="17">
-        <v>0</v>
-      </c>
-      <c r="D6" s="17">
-        <v>0</v>
-      </c>
-      <c r="E6" s="17">
-        <v>0</v>
-      </c>
-      <c r="F6" s="17" t="s">
+      <c r="C6" s="16">
+        <v>0</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0</v>
+      </c>
+      <c r="E6" s="16">
+        <v>0</v>
+      </c>
+      <c r="F6" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17" thickBot="1">
-      <c r="A7" s="19"/>
-      <c r="B7" s="17">
-        <v>0</v>
-      </c>
-      <c r="C7" s="17">
-        <v>0</v>
-      </c>
-      <c r="D7" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="E7" s="17">
-        <v>0</v>
-      </c>
-      <c r="F7" s="17">
-        <v>0</v>
-      </c>
-      <c r="G7" s="18" t="s">
+      <c r="A7" s="18"/>
+      <c r="B7" s="16">
+        <v>0</v>
+      </c>
+      <c r="C7" s="16">
+        <v>0</v>
+      </c>
+      <c r="D7" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="E7" s="16">
+        <v>0</v>
+      </c>
+      <c r="F7" s="16">
+        <v>0</v>
+      </c>
+      <c r="G7" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17" thickBot="1">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="17">
-        <v>0</v>
-      </c>
-      <c r="C8" s="17">
-        <v>0</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="17">
-        <v>0</v>
-      </c>
-      <c r="F8" s="17" t="s">
+      <c r="B8" s="16">
+        <v>0</v>
+      </c>
+      <c r="C8" s="16">
+        <v>0</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="16">
+        <v>0</v>
+      </c>
+      <c r="F8" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17" thickBot="1">
-      <c r="A9" s="19"/>
-      <c r="B9" s="17">
-        <v>0</v>
-      </c>
-      <c r="C9" s="17">
-        <v>0</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="17">
-        <v>0</v>
-      </c>
-      <c r="F9" s="17">
-        <v>0</v>
-      </c>
-      <c r="G9" s="18">
+      <c r="A9" s="18"/>
+      <c r="B9" s="16">
+        <v>0</v>
+      </c>
+      <c r="C9" s="16">
+        <v>0</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="16">
+        <v>0</v>
+      </c>
+      <c r="F9" s="16">
+        <v>0</v>
+      </c>
+      <c r="G9" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17" thickBot="1">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="17">
-        <v>0.01</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="18">
+      <c r="E10" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="17">
         <v>-0.01</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17" thickBot="1">
-      <c r="A11" s="19"/>
-      <c r="B11" s="17">
-        <v>0</v>
-      </c>
-      <c r="C11" s="17">
-        <v>0</v>
-      </c>
-      <c r="D11" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="E11" s="17">
-        <v>0</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="18">
+      <c r="A11" s="18"/>
+      <c r="B11" s="16">
+        <v>0</v>
+      </c>
+      <c r="C11" s="16">
+        <v>0</v>
+      </c>
+      <c r="D11" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="E11" s="16">
+        <v>0</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17" thickBot="1">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="17">
-        <v>0</v>
-      </c>
-      <c r="C12" s="17" t="s">
+      <c r="B12" s="16">
+        <v>0</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="17">
-        <v>0.01</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="17">
-        <v>0</v>
-      </c>
-      <c r="G12" s="18">
+      <c r="D12" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="16">
+        <v>0</v>
+      </c>
+      <c r="G12" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17" thickBot="1">
-      <c r="A13" s="19"/>
-      <c r="B13" s="17">
-        <v>0</v>
-      </c>
-      <c r="C13" s="17">
-        <v>0</v>
-      </c>
-      <c r="D13" s="17">
-        <v>0</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="17">
-        <v>0</v>
-      </c>
-      <c r="G13" s="18">
+      <c r="A13" s="18"/>
+      <c r="B13" s="16">
+        <v>0</v>
+      </c>
+      <c r="C13" s="16">
+        <v>0</v>
+      </c>
+      <c r="D13" s="16">
+        <v>0</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="16">
+        <v>0</v>
+      </c>
+      <c r="G13" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17" thickBot="1">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="17">
-        <v>0</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="17">
-        <v>0</v>
-      </c>
-      <c r="E14" s="17" t="s">
+      <c r="B14" s="16">
+        <v>0</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="16">
+        <v>0</v>
+      </c>
+      <c r="E14" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="17">
-        <v>0</v>
-      </c>
-      <c r="G14" s="18">
+      <c r="F14" s="16">
+        <v>0</v>
+      </c>
+      <c r="G14" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="17" thickBot="1">
-      <c r="A15" s="19"/>
-      <c r="B15" s="17">
-        <v>0</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="17">
-        <v>0</v>
-      </c>
-      <c r="E15" s="17">
-        <v>0</v>
-      </c>
-      <c r="F15" s="17">
-        <v>0</v>
-      </c>
-      <c r="G15" s="18">
+      <c r="A15" s="18"/>
+      <c r="B15" s="16">
+        <v>0</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="16">
+        <v>0</v>
+      </c>
+      <c r="E15" s="16">
+        <v>0</v>
+      </c>
+      <c r="F15" s="16">
+        <v>0</v>
+      </c>
+      <c r="G15" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17" thickBot="1">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="16">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="16">
         <v>0.06</v>
       </c>
-      <c r="D16" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="E16" s="17">
-        <v>0</v>
-      </c>
-      <c r="F16" s="17">
-        <v>0</v>
-      </c>
-      <c r="G16" s="18">
+      <c r="D16" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="E16" s="16">
+        <v>0</v>
+      </c>
+      <c r="F16" s="16">
+        <v>0</v>
+      </c>
+      <c r="G16" s="17">
         <v>-0.02</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="17" thickBot="1">
-      <c r="A17" s="19"/>
-      <c r="B17" s="17">
+      <c r="A17" s="18"/>
+      <c r="B17" s="16">
         <v>-0.04</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="16">
         <v>-0.08</v>
       </c>
-      <c r="D17" s="17">
-        <v>0</v>
-      </c>
-      <c r="E17" s="17">
-        <v>0</v>
-      </c>
-      <c r="F17" s="17">
-        <v>0</v>
-      </c>
-      <c r="G17" s="18">
+      <c r="D17" s="16">
+        <v>0</v>
+      </c>
+      <c r="E17" s="16">
+        <v>0</v>
+      </c>
+      <c r="F17" s="16">
+        <v>0</v>
+      </c>
+      <c r="G17" s="17">
         <v>-0.14000000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="17" thickBot="1">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="16">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="16">
         <v>0.06</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="18">
+      <c r="D18" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="17">
         <v>-0.02</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="17" thickBot="1">
-      <c r="A19" s="19"/>
-      <c r="B19" s="17">
+      <c r="A19" s="18"/>
+      <c r="B19" s="16">
         <v>-0.04</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="16">
         <v>-0.08</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="18">
+      <c r="D19" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="17">
         <v>-0.14000000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="25" thickBot="1">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="17">
-        <v>0</v>
-      </c>
-      <c r="C20" s="17">
-        <v>0</v>
-      </c>
-      <c r="D20" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="E20" s="17">
-        <v>0.01</v>
-      </c>
-      <c r="F20" s="17">
-        <v>0</v>
-      </c>
-      <c r="G20" s="18">
+      <c r="B20" s="16">
+        <v>0</v>
+      </c>
+      <c r="C20" s="16">
+        <v>0</v>
+      </c>
+      <c r="D20" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="E20" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="F20" s="16">
+        <v>0</v>
+      </c>
+      <c r="G20" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="17" thickBot="1">
-      <c r="A21" s="19"/>
-      <c r="B21" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="C21" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="D21" s="17">
-        <v>-0.02</v>
-      </c>
-      <c r="E21" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="F21" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="G21" s="18">
+      <c r="A21" s="18"/>
+      <c r="B21" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="C21" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="D21" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="E21" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="F21" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="G21" s="17">
         <v>-0.02</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="17" thickBot="1">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="17">
-        <v>0</v>
-      </c>
-      <c r="C22" s="17">
-        <v>0</v>
-      </c>
-      <c r="D22" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="E22" s="17">
-        <v>0</v>
-      </c>
-      <c r="F22" s="17">
-        <v>0.01</v>
-      </c>
-      <c r="G22" s="18">
+      <c r="B22" s="16">
+        <v>0</v>
+      </c>
+      <c r="C22" s="16">
+        <v>0</v>
+      </c>
+      <c r="D22" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="E22" s="16">
+        <v>0</v>
+      </c>
+      <c r="F22" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="G22" s="17">
         <v>-0.01</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="17" thickBot="1">
-      <c r="A23" s="19"/>
-      <c r="B23" s="17">
-        <v>0</v>
-      </c>
-      <c r="C23" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="D23" s="17">
-        <v>-0.02</v>
-      </c>
-      <c r="E23" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="F23" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="G23" s="18">
+      <c r="A23" s="18"/>
+      <c r="B23" s="16">
+        <v>0</v>
+      </c>
+      <c r="C23" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="D23" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="E23" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="F23" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="G23" s="17">
         <v>-0.02</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="17" thickBot="1">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="17">
-        <v>0</v>
-      </c>
-      <c r="C24" s="17">
-        <v>0</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="18">
+      <c r="B24" s="16">
+        <v>0</v>
+      </c>
+      <c r="C24" s="16">
+        <v>0</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="17" thickBot="1">
-      <c r="A25" s="19"/>
-      <c r="B25" s="17">
-        <v>0</v>
-      </c>
-      <c r="C25" s="17">
-        <v>0</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="18">
+      <c r="A25" s="18"/>
+      <c r="B25" s="16">
+        <v>0</v>
+      </c>
+      <c r="C25" s="16">
+        <v>0</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="17">
         <v>-0.01</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="17" thickBot="1">
-      <c r="A26" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="17">
-        <v>0</v>
-      </c>
-      <c r="D26" s="17">
-        <v>0</v>
-      </c>
-      <c r="E26" s="17">
-        <v>0</v>
-      </c>
-      <c r="F26" s="17" t="s">
+      <c r="A26" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="16">
+        <v>0</v>
+      </c>
+      <c r="D26" s="16">
+        <v>0</v>
+      </c>
+      <c r="E26" s="16">
+        <v>0</v>
+      </c>
+      <c r="F26" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="18" t="s">
+      <c r="G26" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17" thickBot="1">
-      <c r="A27" s="19"/>
-      <c r="B27" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="17">
-        <v>0</v>
-      </c>
-      <c r="D27" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="E27" s="17">
-        <v>0</v>
-      </c>
-      <c r="F27" s="17">
-        <v>0</v>
-      </c>
-      <c r="G27" s="18">
+      <c r="A27" s="18"/>
+      <c r="B27" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="16">
+        <v>0</v>
+      </c>
+      <c r="D27" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="E27" s="16">
+        <v>0</v>
+      </c>
+      <c r="F27" s="16">
+        <v>0</v>
+      </c>
+      <c r="G27" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="17" thickBot="1">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="17">
-        <v>-0.02</v>
-      </c>
-      <c r="E28" s="17">
-        <v>0</v>
-      </c>
-      <c r="F28" s="17">
-        <v>0</v>
-      </c>
-      <c r="G28" s="18" t="s">
+      <c r="B28" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="E28" s="16">
+        <v>0</v>
+      </c>
+      <c r="F28" s="16">
+        <v>0</v>
+      </c>
+      <c r="G28" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="17" thickBot="1">
-      <c r="A29" s="19"/>
-      <c r="B29" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="17">
+      <c r="A29" s="18"/>
+      <c r="B29" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="16">
         <v>-0.03</v>
       </c>
-      <c r="E29" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="F29" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="G29" s="18" t="s">
+      <c r="E29" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="F29" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="G29" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="25" thickBot="1">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="17" t="s">
+      <c r="B30" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="E30" s="17">
-        <v>0</v>
-      </c>
-      <c r="F30" s="17" t="s">
+      <c r="E30" s="16">
+        <v>0</v>
+      </c>
+      <c r="F30" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="G30" s="18" t="s">
+      <c r="G30" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="17" thickBot="1">
-      <c r="A31" s="19"/>
-      <c r="B31" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="17">
-        <v>-0.02</v>
-      </c>
-      <c r="E31" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="F31" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="G31" s="18" t="s">
+      <c r="A31" s="18"/>
+      <c r="B31" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="E31" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="F31" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="G31" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="25" thickBot="1">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="17">
-        <v>0.01</v>
-      </c>
-      <c r="E32" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="F32" s="17">
-        <v>0</v>
-      </c>
-      <c r="G32" s="18" t="s">
+      <c r="B32" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="E32" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="F32" s="16">
+        <v>0</v>
+      </c>
+      <c r="G32" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="17" thickBot="1">
-      <c r="A33" s="19"/>
-      <c r="B33" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="E33" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="F33" s="17">
-        <v>0</v>
-      </c>
-      <c r="G33" s="18" t="s">
+      <c r="A33" s="18"/>
+      <c r="B33" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="E33" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="F33" s="16">
+        <v>0</v>
+      </c>
+      <c r="G33" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="25" thickBot="1">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B34" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" s="17">
-        <v>0</v>
-      </c>
-      <c r="E34" s="17">
-        <v>0</v>
-      </c>
-      <c r="F34" s="17">
-        <v>0.01</v>
-      </c>
-      <c r="G34" s="18" t="s">
+      <c r="B34" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="16">
+        <v>0</v>
+      </c>
+      <c r="E34" s="16">
+        <v>0</v>
+      </c>
+      <c r="F34" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="G34" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="17" thickBot="1">
-      <c r="A35" s="19"/>
-      <c r="B35" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35" s="17">
-        <v>-0.02</v>
-      </c>
-      <c r="E35" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="F35" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="G35" s="18" t="s">
+      <c r="A35" s="18"/>
+      <c r="B35" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="E35" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="F35" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="G35" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="25" thickBot="1">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B36" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="E36" s="17">
-        <v>-0.02</v>
-      </c>
-      <c r="F36" s="17">
-        <v>0.01</v>
-      </c>
-      <c r="G36" s="18" t="s">
+      <c r="B36" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="E36" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="F36" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="G36" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="17" thickBot="1">
-      <c r="A37" s="19"/>
-      <c r="B37" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" s="17">
-        <v>-0.02</v>
-      </c>
-      <c r="E37" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="F37" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="G37" s="18" t="s">
+      <c r="A37" s="18"/>
+      <c r="B37" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="E37" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="F37" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="G37" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="25" thickBot="1">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B38" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" s="17">
+      <c r="B38" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="16">
         <v>-0.04</v>
       </c>
-      <c r="E38" s="17">
-        <v>0.01</v>
-      </c>
-      <c r="F38" s="17" t="s">
+      <c r="E38" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="F38" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="G38" s="18" t="s">
+      <c r="G38" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="17" thickBot="1">
-      <c r="A39" s="19"/>
-      <c r="B39" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" s="17">
+      <c r="A39" s="18"/>
+      <c r="B39" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="16">
         <v>-0.03</v>
       </c>
-      <c r="E39" s="17">
-        <v>-0.02</v>
-      </c>
-      <c r="F39" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="G39" s="18" t="s">
+      <c r="E39" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="F39" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="G39" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="25" thickBot="1">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B40" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40" s="17">
-        <v>-0.02</v>
-      </c>
-      <c r="E40" s="17">
+      <c r="B40" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="E40" s="16">
         <v>0.03</v>
       </c>
-      <c r="F40" s="17">
-        <v>0</v>
-      </c>
-      <c r="G40" s="18" t="s">
+      <c r="F40" s="16">
+        <v>0</v>
+      </c>
+      <c r="G40" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="17" thickBot="1">
-      <c r="A41" s="19"/>
-      <c r="B41" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D41" s="17">
+      <c r="A41" s="18"/>
+      <c r="B41" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="16">
         <v>-0.03</v>
       </c>
-      <c r="E41" s="17">
-        <v>-0.02</v>
-      </c>
-      <c r="F41" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="G41" s="18" t="s">
+      <c r="E41" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="F41" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="G41" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="25" thickBot="1">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B42" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D42" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="E42" s="17">
-        <v>0</v>
-      </c>
-      <c r="F42" s="17">
+      <c r="B42" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="E42" s="16">
+        <v>0</v>
+      </c>
+      <c r="F42" s="16">
         <v>0.02</v>
       </c>
-      <c r="G42" s="18" t="s">
+      <c r="G42" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="17" thickBot="1">
-      <c r="A43" s="19"/>
-      <c r="B43" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D43" s="17">
-        <v>-0.02</v>
-      </c>
-      <c r="E43" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="F43" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="G43" s="18" t="s">
+      <c r="A43" s="18"/>
+      <c r="B43" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="E43" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="F43" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="G43" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="25" thickBot="1">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="B44" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D44" s="17">
-        <v>0</v>
-      </c>
-      <c r="E44" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="F44" s="17">
-        <v>0.01</v>
-      </c>
-      <c r="G44" s="18" t="s">
+      <c r="B44" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="16">
+        <v>0</v>
+      </c>
+      <c r="E44" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="F44" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="G44" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="17" thickBot="1">
-      <c r="A45" s="19"/>
-      <c r="B45" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D45" s="17">
-        <v>-0.02</v>
-      </c>
-      <c r="E45" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="F45" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="G45" s="18" t="s">
+      <c r="A45" s="18"/>
+      <c r="B45" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="E45" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="F45" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="G45" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="25" thickBot="1">
-      <c r="A46" s="16" t="s">
+      <c r="A46" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B46" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C46" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D46" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="E46" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="F46" s="17" t="s">
+      <c r="B46" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="E46" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="F46" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="G46" s="18" t="s">
+      <c r="G46" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="17" thickBot="1">
-      <c r="A47" s="19"/>
-      <c r="B47" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D47" s="17">
-        <v>-0.02</v>
-      </c>
-      <c r="E47" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="F47" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="G47" s="18" t="s">
+      <c r="A47" s="18"/>
+      <c r="B47" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="E47" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="F47" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="G47" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="25" thickBot="1">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B48" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D48" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="E48" s="17">
-        <v>0</v>
-      </c>
-      <c r="F48" s="17">
-        <v>0.01</v>
-      </c>
-      <c r="G48" s="18" t="s">
+      <c r="B48" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="E48" s="16">
+        <v>0</v>
+      </c>
+      <c r="F48" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="G48" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="17" thickBot="1">
-      <c r="A49" s="19"/>
-      <c r="B49" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D49" s="17">
-        <v>-0.02</v>
-      </c>
-      <c r="E49" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="F49" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="G49" s="18" t="s">
+      <c r="A49" s="18"/>
+      <c r="B49" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="E49" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="F49" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="G49" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="25" thickBot="1">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B50" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D50" s="17">
+      <c r="B50" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="16">
         <v>-0.03</v>
       </c>
-      <c r="E50" s="17">
+      <c r="E50" s="16">
         <v>-0.03</v>
       </c>
-      <c r="F50" s="17">
+      <c r="F50" s="16">
         <v>0.03</v>
       </c>
-      <c r="G50" s="18" t="s">
+      <c r="G50" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="17" thickBot="1">
-      <c r="A51" s="19"/>
-      <c r="B51" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C51" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D51" s="17">
+      <c r="A51" s="18"/>
+      <c r="B51" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="16">
         <v>-0.03</v>
       </c>
-      <c r="E51" s="17">
-        <v>-0.02</v>
-      </c>
-      <c r="F51" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="G51" s="18" t="s">
+      <c r="E51" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="F51" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="G51" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="25" thickBot="1">
-      <c r="A52" s="16" t="s">
+      <c r="A52" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B52" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C52" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D52" s="17">
-        <v>0.01</v>
-      </c>
-      <c r="E52" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="F52" s="17">
-        <v>0</v>
-      </c>
-      <c r="G52" s="18" t="s">
+      <c r="B52" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="E52" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="F52" s="16">
+        <v>0</v>
+      </c>
+      <c r="G52" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="17" thickBot="1">
-      <c r="A53" s="19"/>
-      <c r="B53" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C53" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D53" s="17">
+      <c r="A53" s="18"/>
+      <c r="B53" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="16">
         <v>-0.04</v>
       </c>
-      <c r="E53" s="17">
-        <v>-0.02</v>
-      </c>
-      <c r="F53" s="17">
-        <v>-0.02</v>
-      </c>
-      <c r="G53" s="18" t="s">
+      <c r="E53" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="F53" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="G53" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="17" thickBot="1">
-      <c r="A54" s="16" t="s">
+      <c r="A54" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B54" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C54" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D54" s="17">
+      <c r="B54" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="16">
         <v>0.02</v>
       </c>
-      <c r="E54" s="17">
-        <v>0</v>
-      </c>
-      <c r="F54" s="17">
-        <v>0</v>
-      </c>
-      <c r="G54" s="18" t="s">
+      <c r="E54" s="16">
+        <v>0</v>
+      </c>
+      <c r="F54" s="16">
+        <v>0</v>
+      </c>
+      <c r="G54" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="17" thickBot="1">
-      <c r="A55" s="19"/>
-      <c r="B55" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C55" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D55" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="E55" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="F55" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="G55" s="18" t="s">
+      <c r="A55" s="18"/>
+      <c r="B55" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="E55" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="F55" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="G55" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="25" thickBot="1">
-      <c r="A56" s="16" t="s">
+      <c r="A56" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B56" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C56" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D56" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="E56" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="F56" s="17" t="s">
+      <c r="B56" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="E56" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="F56" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G56" s="18" t="s">
+      <c r="G56" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="17" thickBot="1">
-      <c r="A57" s="19"/>
-      <c r="B57" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C57" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D57" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="E57" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="F57" s="17">
-        <v>0</v>
-      </c>
-      <c r="G57" s="18" t="s">
+      <c r="A57" s="18"/>
+      <c r="B57" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="E57" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="F57" s="16">
+        <v>0</v>
+      </c>
+      <c r="G57" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="17" thickBot="1">
-      <c r="A58" s="16" t="s">
+      <c r="A58" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B58" s="17">
+      <c r="B58" s="16">
         <v>104</v>
       </c>
-      <c r="C58" s="17">
+      <c r="C58" s="16">
         <v>104</v>
       </c>
-      <c r="D58" s="17">
+      <c r="D58" s="16">
         <v>91</v>
       </c>
-      <c r="E58" s="17">
+      <c r="E58" s="16">
         <v>91</v>
       </c>
-      <c r="F58" s="17">
+      <c r="F58" s="16">
         <v>91</v>
       </c>
-      <c r="G58" s="18">
+      <c r="G58" s="17">
         <v>104</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="17" thickBot="1">
-      <c r="A59" s="16" t="s">
+      <c r="A59" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B59" s="17">
+      <c r="B59" s="16">
         <v>0.5</v>
       </c>
-      <c r="C59" s="17">
+      <c r="C59" s="16">
         <v>0.22</v>
       </c>
-      <c r="D59" s="17">
+      <c r="D59" s="16">
         <v>0.36</v>
       </c>
-      <c r="E59" s="17">
+      <c r="E59" s="16">
         <v>0.28000000000000003</v>
       </c>
-      <c r="F59" s="17">
+      <c r="F59" s="16">
         <v>0.61</v>
       </c>
-      <c r="G59" s="18">
+      <c r="G59" s="17">
         <v>0.4</v>
       </c>
     </row>
@@ -5093,831 +5092,831 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="3" spans="1:8" ht="17" thickBot="1">
-      <c r="A3" s="22"/>
-      <c r="B3" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="23" t="s">
+      <c r="A3" s="20"/>
+      <c r="B3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="25"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="1:8" ht="17" thickBot="1">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="16">
         <v>0.03</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="H4" s="25"/>
+      <c r="H4" s="23"/>
     </row>
     <row r="5" spans="1:8" ht="17" thickBot="1">
-      <c r="A5" s="19"/>
-      <c r="B5" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="C5" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="D5" s="17">
+      <c r="A5" s="18"/>
+      <c r="B5" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="C5" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="D5" s="16">
         <v>-0.04</v>
       </c>
-      <c r="E5" s="17">
-        <v>-0.02</v>
-      </c>
-      <c r="F5" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="G5" s="18">
+      <c r="E5" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="F5" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="G5" s="17">
         <v>-0.03</v>
       </c>
-      <c r="H5" s="25"/>
+      <c r="H5" s="23"/>
     </row>
     <row r="6" spans="1:8" ht="17" thickBot="1">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="17">
-        <v>0</v>
-      </c>
-      <c r="D6" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="E6" s="17">
-        <v>0</v>
-      </c>
-      <c r="F6" s="17" t="s">
+      <c r="C6" s="16">
+        <v>0</v>
+      </c>
+      <c r="D6" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="E6" s="16">
+        <v>0</v>
+      </c>
+      <c r="F6" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="25"/>
+      <c r="G6" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="23"/>
     </row>
     <row r="7" spans="1:8" ht="17" thickBot="1">
-      <c r="A7" s="19"/>
-      <c r="B7" s="17">
-        <v>0</v>
-      </c>
-      <c r="C7" s="17">
-        <v>0</v>
-      </c>
-      <c r="D7" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="E7" s="17">
-        <v>0</v>
-      </c>
-      <c r="F7" s="17">
-        <v>0</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="25"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="16">
+        <v>0</v>
+      </c>
+      <c r="C7" s="16">
+        <v>0</v>
+      </c>
+      <c r="D7" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="E7" s="16">
+        <v>0</v>
+      </c>
+      <c r="F7" s="16">
+        <v>0</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="23"/>
     </row>
     <row r="8" spans="1:8" ht="17" thickBot="1">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="17">
-        <v>0</v>
-      </c>
-      <c r="C8" s="17">
-        <v>0</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="17" t="s">
+      <c r="B8" s="16">
+        <v>0</v>
+      </c>
+      <c r="C8" s="16">
+        <v>0</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="18">
-        <v>0</v>
-      </c>
-      <c r="H8" s="25"/>
+      <c r="G8" s="17">
+        <v>0</v>
+      </c>
+      <c r="H8" s="23"/>
     </row>
     <row r="9" spans="1:8" ht="17" thickBot="1">
-      <c r="A9" s="19"/>
-      <c r="B9" s="17">
-        <v>0</v>
-      </c>
-      <c r="C9" s="17">
-        <v>0</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="17">
-        <v>0</v>
-      </c>
-      <c r="F9" s="17">
-        <v>0</v>
-      </c>
-      <c r="G9" s="18">
-        <v>0</v>
-      </c>
-      <c r="H9" s="25"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="16">
+        <v>0</v>
+      </c>
+      <c r="C9" s="16">
+        <v>0</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="16">
+        <v>0</v>
+      </c>
+      <c r="F9" s="16">
+        <v>0</v>
+      </c>
+      <c r="G9" s="17">
+        <v>0</v>
+      </c>
+      <c r="H9" s="23"/>
     </row>
     <row r="10" spans="1:8" ht="17" thickBot="1">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="17">
-        <v>0</v>
-      </c>
-      <c r="C10" s="17" t="s">
+      <c r="B10" s="16">
+        <v>0</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="17">
-        <v>0</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="18" t="s">
+      <c r="E10" s="16">
+        <v>0</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="25"/>
+      <c r="H10" s="23"/>
     </row>
     <row r="11" spans="1:8" ht="17" thickBot="1">
-      <c r="A11" s="19"/>
-      <c r="B11" s="17">
-        <v>0</v>
-      </c>
-      <c r="C11" s="17">
-        <v>0</v>
-      </c>
-      <c r="D11" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="E11" s="17">
-        <v>0</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="18">
-        <v>0</v>
-      </c>
-      <c r="H11" s="25"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="16">
+        <v>0</v>
+      </c>
+      <c r="C11" s="16">
+        <v>0</v>
+      </c>
+      <c r="D11" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="E11" s="16">
+        <v>0</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="17">
+        <v>0</v>
+      </c>
+      <c r="H11" s="23"/>
     </row>
     <row r="12" spans="1:8" ht="17" thickBot="1">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="17">
-        <v>0</v>
-      </c>
-      <c r="C12" s="17">
-        <v>0</v>
-      </c>
-      <c r="D12" s="17" t="s">
+      <c r="B12" s="16">
+        <v>0</v>
+      </c>
+      <c r="C12" s="16">
+        <v>0</v>
+      </c>
+      <c r="D12" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="17">
-        <v>0</v>
-      </c>
-      <c r="G12" s="18">
-        <v>0</v>
-      </c>
-      <c r="H12" s="25"/>
+      <c r="E12" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="16">
+        <v>0</v>
+      </c>
+      <c r="G12" s="17">
+        <v>0</v>
+      </c>
+      <c r="H12" s="23"/>
     </row>
     <row r="13" spans="1:8" ht="17" thickBot="1">
-      <c r="A13" s="19"/>
-      <c r="B13" s="17">
-        <v>0</v>
-      </c>
-      <c r="C13" s="17">
-        <v>0</v>
-      </c>
-      <c r="D13" s="17">
-        <v>0</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="17">
-        <v>0</v>
-      </c>
-      <c r="G13" s="18">
-        <v>0</v>
-      </c>
-      <c r="H13" s="25"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="16">
+        <v>0</v>
+      </c>
+      <c r="C13" s="16">
+        <v>0</v>
+      </c>
+      <c r="D13" s="16">
+        <v>0</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="16">
+        <v>0</v>
+      </c>
+      <c r="G13" s="17">
+        <v>0</v>
+      </c>
+      <c r="H13" s="23"/>
     </row>
     <row r="14" spans="1:8" ht="17" thickBot="1">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="17">
-        <v>0</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="17">
-        <v>0.01</v>
-      </c>
-      <c r="E14" s="17">
-        <v>0</v>
-      </c>
-      <c r="F14" s="17" t="s">
+      <c r="B14" s="16">
+        <v>0</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="E14" s="16">
+        <v>0</v>
+      </c>
+      <c r="F14" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="18">
-        <v>0</v>
-      </c>
-      <c r="H14" s="25"/>
+      <c r="G14" s="17">
+        <v>0</v>
+      </c>
+      <c r="H14" s="23"/>
     </row>
     <row r="15" spans="1:8" ht="17" thickBot="1">
-      <c r="A15" s="19"/>
-      <c r="B15" s="17">
-        <v>0</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="17">
-        <v>0</v>
-      </c>
-      <c r="E15" s="17">
-        <v>0</v>
-      </c>
-      <c r="F15" s="17">
-        <v>0</v>
-      </c>
-      <c r="G15" s="18">
-        <v>0</v>
-      </c>
-      <c r="H15" s="25"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="16">
+        <v>0</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="16">
+        <v>0</v>
+      </c>
+      <c r="E15" s="16">
+        <v>0</v>
+      </c>
+      <c r="F15" s="16">
+        <v>0</v>
+      </c>
+      <c r="G15" s="17">
+        <v>0</v>
+      </c>
+      <c r="H15" s="23"/>
     </row>
     <row r="16" spans="1:8" ht="17" thickBot="1">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="17">
-        <v>0</v>
-      </c>
-      <c r="C16" s="17">
-        <v>0</v>
-      </c>
-      <c r="D16" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="E16" s="17">
-        <v>0</v>
-      </c>
-      <c r="F16" s="17">
-        <v>0</v>
-      </c>
-      <c r="G16" s="18">
-        <v>0</v>
-      </c>
-      <c r="H16" s="25"/>
+      <c r="B16" s="16">
+        <v>0</v>
+      </c>
+      <c r="C16" s="16">
+        <v>0</v>
+      </c>
+      <c r="D16" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="E16" s="16">
+        <v>0</v>
+      </c>
+      <c r="F16" s="16">
+        <v>0</v>
+      </c>
+      <c r="G16" s="17">
+        <v>0</v>
+      </c>
+      <c r="H16" s="23"/>
     </row>
     <row r="17" spans="1:8" ht="17" thickBot="1">
-      <c r="A17" s="19"/>
-      <c r="B17" s="17">
-        <v>0</v>
-      </c>
-      <c r="C17" s="17">
-        <v>0</v>
-      </c>
-      <c r="D17" s="17">
-        <v>0</v>
-      </c>
-      <c r="E17" s="17">
-        <v>0</v>
-      </c>
-      <c r="F17" s="17">
-        <v>0</v>
-      </c>
-      <c r="G17" s="18">
-        <v>0</v>
-      </c>
-      <c r="H17" s="25"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="16">
+        <v>0</v>
+      </c>
+      <c r="C17" s="16">
+        <v>0</v>
+      </c>
+      <c r="D17" s="16">
+        <v>0</v>
+      </c>
+      <c r="E17" s="16">
+        <v>0</v>
+      </c>
+      <c r="F17" s="16">
+        <v>0</v>
+      </c>
+      <c r="G17" s="17">
+        <v>0</v>
+      </c>
+      <c r="H17" s="23"/>
     </row>
     <row r="18" spans="1:8" ht="17" thickBot="1">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="C18" s="17">
-        <v>0.01</v>
-      </c>
-      <c r="D18" s="17">
+      <c r="C18" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="D18" s="16">
         <v>0.02</v>
       </c>
-      <c r="E18" s="17">
-        <v>0.01</v>
-      </c>
-      <c r="F18" s="17" t="s">
+      <c r="E18" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="F18" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="G18" s="18">
-        <v>-0.01</v>
-      </c>
-      <c r="H18" s="25"/>
+      <c r="G18" s="17">
+        <v>-0.01</v>
+      </c>
+      <c r="H18" s="23"/>
     </row>
     <row r="19" spans="1:8" ht="17" thickBot="1">
-      <c r="A19" s="19"/>
-      <c r="B19" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="C19" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="D19" s="17">
+      <c r="A19" s="18"/>
+      <c r="B19" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="C19" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="D19" s="16">
         <v>-0.03</v>
       </c>
-      <c r="E19" s="17">
-        <v>-0.02</v>
-      </c>
-      <c r="F19" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="G19" s="18">
-        <v>-0.02</v>
-      </c>
-      <c r="H19" s="25"/>
+      <c r="E19" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="F19" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="G19" s="17">
+        <v>-0.02</v>
+      </c>
+      <c r="H19" s="23"/>
     </row>
     <row r="20" spans="1:8" ht="17" thickBot="1">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="17">
-        <v>0.01</v>
-      </c>
-      <c r="E20" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="F20" s="17" t="s">
+      <c r="D20" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="E20" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="F20" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="18">
-        <v>0</v>
-      </c>
-      <c r="H20" s="25"/>
+      <c r="G20" s="17">
+        <v>0</v>
+      </c>
+      <c r="H20" s="23"/>
     </row>
     <row r="21" spans="1:8" ht="17" thickBot="1">
-      <c r="A21" s="19"/>
-      <c r="B21" s="17">
-        <v>0</v>
-      </c>
-      <c r="C21" s="17">
-        <v>0</v>
-      </c>
-      <c r="D21" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="E21" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="F21" s="17">
-        <v>0</v>
-      </c>
-      <c r="G21" s="18">
-        <v>-0.01</v>
-      </c>
-      <c r="H21" s="25"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="16">
+        <v>0</v>
+      </c>
+      <c r="C21" s="16">
+        <v>0</v>
+      </c>
+      <c r="D21" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="E21" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="F21" s="16">
+        <v>0</v>
+      </c>
+      <c r="G21" s="17">
+        <v>-0.01</v>
+      </c>
+      <c r="H21" s="23"/>
     </row>
     <row r="22" spans="1:8" ht="25" thickBot="1">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="17">
-        <v>0.01</v>
-      </c>
-      <c r="C22" s="17">
-        <v>0</v>
-      </c>
-      <c r="D22" s="17">
-        <v>0.01</v>
-      </c>
-      <c r="E22" s="17">
-        <v>-0.02</v>
-      </c>
-      <c r="F22" s="17">
-        <v>0</v>
-      </c>
-      <c r="G22" s="18">
-        <v>-0.02</v>
-      </c>
-      <c r="H22" s="25"/>
+      <c r="B22" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="C22" s="16">
+        <v>0</v>
+      </c>
+      <c r="D22" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="E22" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="F22" s="16">
+        <v>0</v>
+      </c>
+      <c r="G22" s="17">
+        <v>-0.02</v>
+      </c>
+      <c r="H22" s="23"/>
     </row>
     <row r="23" spans="1:8" ht="17" thickBot="1">
-      <c r="A23" s="19"/>
-      <c r="B23" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="C23" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="D23" s="17">
-        <v>-0.02</v>
-      </c>
-      <c r="E23" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="F23" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="G23" s="18">
-        <v>-0.02</v>
-      </c>
-      <c r="H23" s="25"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="C23" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="D23" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="E23" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="F23" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="G23" s="17">
+        <v>-0.02</v>
+      </c>
+      <c r="H23" s="23"/>
     </row>
     <row r="24" spans="1:8" ht="17" thickBot="1">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="17">
-        <v>0</v>
-      </c>
-      <c r="C24" s="17">
-        <v>0</v>
-      </c>
-      <c r="D24" s="17">
-        <v>0</v>
-      </c>
-      <c r="E24" s="17">
-        <v>0</v>
-      </c>
-      <c r="F24" s="17">
-        <v>0</v>
-      </c>
-      <c r="G24" s="18">
-        <v>-0.01</v>
-      </c>
-      <c r="H24" s="25"/>
+      <c r="B24" s="16">
+        <v>0</v>
+      </c>
+      <c r="C24" s="16">
+        <v>0</v>
+      </c>
+      <c r="D24" s="16">
+        <v>0</v>
+      </c>
+      <c r="E24" s="16">
+        <v>0</v>
+      </c>
+      <c r="F24" s="16">
+        <v>0</v>
+      </c>
+      <c r="G24" s="17">
+        <v>-0.01</v>
+      </c>
+      <c r="H24" s="23"/>
     </row>
     <row r="25" spans="1:8" ht="17" thickBot="1">
-      <c r="A25" s="19"/>
-      <c r="B25" s="17">
-        <v>0</v>
-      </c>
-      <c r="C25" s="17">
-        <v>0</v>
-      </c>
-      <c r="D25" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="E25" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="F25" s="17">
-        <v>0</v>
-      </c>
-      <c r="G25" s="18">
-        <v>-0.01</v>
-      </c>
-      <c r="H25" s="25"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="16">
+        <v>0</v>
+      </c>
+      <c r="C25" s="16">
+        <v>0</v>
+      </c>
+      <c r="D25" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="E25" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="F25" s="16">
+        <v>0</v>
+      </c>
+      <c r="G25" s="17">
+        <v>-0.01</v>
+      </c>
+      <c r="H25" s="23"/>
     </row>
     <row r="26" spans="1:8" ht="25" thickBot="1">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="17">
-        <v>0</v>
-      </c>
-      <c r="C26" s="17">
-        <v>0</v>
-      </c>
-      <c r="D26" s="17">
-        <v>0</v>
-      </c>
-      <c r="E26" s="17" t="s">
+      <c r="B26" s="16">
+        <v>0</v>
+      </c>
+      <c r="C26" s="16">
+        <v>0</v>
+      </c>
+      <c r="D26" s="16">
+        <v>0</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="F26" s="17">
-        <v>0</v>
-      </c>
-      <c r="G26" s="18">
-        <v>0</v>
-      </c>
-      <c r="H26" s="25"/>
+      <c r="F26" s="16">
+        <v>0</v>
+      </c>
+      <c r="G26" s="17">
+        <v>0</v>
+      </c>
+      <c r="H26" s="23"/>
     </row>
     <row r="27" spans="1:8" ht="17" thickBot="1">
-      <c r="A27" s="19"/>
-      <c r="B27" s="17">
-        <v>0</v>
-      </c>
-      <c r="C27" s="17">
-        <v>0</v>
-      </c>
-      <c r="D27" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="E27" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="F27" s="17">
-        <v>0</v>
-      </c>
-      <c r="G27" s="18">
-        <v>-0.01</v>
-      </c>
-      <c r="H27" s="25"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="16">
+        <v>0</v>
+      </c>
+      <c r="C27" s="16">
+        <v>0</v>
+      </c>
+      <c r="D27" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="E27" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="F27" s="16">
+        <v>0</v>
+      </c>
+      <c r="G27" s="17">
+        <v>-0.01</v>
+      </c>
+      <c r="H27" s="23"/>
     </row>
     <row r="28" spans="1:8" ht="17" thickBot="1">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="17">
-        <v>0</v>
-      </c>
-      <c r="C28" s="17">
-        <v>0</v>
-      </c>
-      <c r="D28" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="E28" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="F28" s="17" t="s">
+      <c r="B28" s="16">
+        <v>0</v>
+      </c>
+      <c r="C28" s="16">
+        <v>0</v>
+      </c>
+      <c r="D28" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="E28" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="F28" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G28" s="18">
-        <v>0</v>
-      </c>
-      <c r="H28" s="25"/>
+      <c r="G28" s="17">
+        <v>0</v>
+      </c>
+      <c r="H28" s="23"/>
     </row>
     <row r="29" spans="1:8" ht="17" thickBot="1">
-      <c r="A29" s="19"/>
-      <c r="B29" s="17">
-        <v>0</v>
-      </c>
-      <c r="C29" s="17">
-        <v>0</v>
-      </c>
-      <c r="D29" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="E29" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="F29" s="17">
-        <v>0</v>
-      </c>
-      <c r="G29" s="18">
-        <v>-0.01</v>
-      </c>
-      <c r="H29" s="25"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="16">
+        <v>0</v>
+      </c>
+      <c r="C29" s="16">
+        <v>0</v>
+      </c>
+      <c r="D29" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="E29" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="F29" s="16">
+        <v>0</v>
+      </c>
+      <c r="G29" s="17">
+        <v>-0.01</v>
+      </c>
+      <c r="H29" s="23"/>
     </row>
     <row r="30" spans="1:8" ht="17" thickBot="1">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="C30" s="17">
-        <v>0</v>
-      </c>
-      <c r="D30" s="17" t="s">
+      <c r="B30" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="C30" s="16">
+        <v>0</v>
+      </c>
+      <c r="D30" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="E30" s="17" t="s">
+      <c r="E30" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="F30" s="17" t="s">
+      <c r="F30" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="G30" s="18">
-        <v>0</v>
-      </c>
-      <c r="H30" s="25"/>
+      <c r="G30" s="17">
+        <v>0</v>
+      </c>
+      <c r="H30" s="23"/>
     </row>
     <row r="31" spans="1:8" ht="17" thickBot="1">
-      <c r="A31" s="19"/>
-      <c r="B31" s="17">
-        <v>0</v>
-      </c>
-      <c r="C31" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="D31" s="17">
-        <v>-0.02</v>
-      </c>
-      <c r="E31" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="F31" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="G31" s="18">
-        <v>-0.01</v>
-      </c>
-      <c r="H31" s="25"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="16">
+        <v>0</v>
+      </c>
+      <c r="C31" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="D31" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="E31" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="F31" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="G31" s="17">
+        <v>-0.01</v>
+      </c>
+      <c r="H31" s="23"/>
     </row>
     <row r="32" spans="1:8" ht="25" thickBot="1">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="17">
-        <v>0</v>
-      </c>
-      <c r="C32" s="17">
-        <v>0</v>
-      </c>
-      <c r="D32" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="E32" s="17">
-        <v>0.01</v>
-      </c>
-      <c r="F32" s="17">
-        <v>0</v>
-      </c>
-      <c r="G32" s="18">
-        <v>0</v>
-      </c>
-      <c r="H32" s="25"/>
+      <c r="B32" s="16">
+        <v>0</v>
+      </c>
+      <c r="C32" s="16">
+        <v>0</v>
+      </c>
+      <c r="D32" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="E32" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="F32" s="16">
+        <v>0</v>
+      </c>
+      <c r="G32" s="17">
+        <v>0</v>
+      </c>
+      <c r="H32" s="23"/>
     </row>
     <row r="33" spans="1:8" ht="17" thickBot="1">
-      <c r="A33" s="19"/>
-      <c r="B33" s="17">
-        <v>0</v>
-      </c>
-      <c r="C33" s="17">
-        <v>0</v>
-      </c>
-      <c r="D33" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="E33" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="F33" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="G33" s="18">
-        <v>-0.01</v>
-      </c>
-      <c r="H33" s="25"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="16">
+        <v>0</v>
+      </c>
+      <c r="C33" s="16">
+        <v>0</v>
+      </c>
+      <c r="D33" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="E33" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="F33" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="G33" s="17">
+        <v>-0.01</v>
+      </c>
+      <c r="H33" s="23"/>
     </row>
     <row r="34" spans="1:8" ht="17" thickBot="1">
-      <c r="A34" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="17">
-        <v>0</v>
-      </c>
-      <c r="D34" s="17">
-        <v>0.01</v>
-      </c>
-      <c r="E34" s="17">
-        <v>0</v>
-      </c>
-      <c r="F34" s="17">
-        <v>0</v>
-      </c>
-      <c r="G34" s="18" t="s">
+      <c r="A34" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="16">
+        <v>0</v>
+      </c>
+      <c r="D34" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="E34" s="16">
+        <v>0</v>
+      </c>
+      <c r="F34" s="16">
+        <v>0</v>
+      </c>
+      <c r="G34" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H34" s="25"/>
+      <c r="H34" s="23"/>
     </row>
     <row r="35" spans="1:8" ht="17" thickBot="1">
-      <c r="A35" s="19"/>
-      <c r="B35" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="17">
-        <v>0</v>
-      </c>
-      <c r="D35" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="E35" s="17">
-        <v>0</v>
-      </c>
-      <c r="F35" s="17">
-        <v>0</v>
-      </c>
-      <c r="G35" s="18">
-        <v>0</v>
-      </c>
-      <c r="H35" s="25"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="16">
+        <v>0</v>
+      </c>
+      <c r="D35" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="E35" s="16">
+        <v>0</v>
+      </c>
+      <c r="F35" s="16">
+        <v>0</v>
+      </c>
+      <c r="G35" s="17">
+        <v>0</v>
+      </c>
+      <c r="H35" s="23"/>
     </row>
     <row r="36" spans="1:8" ht="17" thickBot="1">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="17">
+      <c r="B36" s="16">
         <v>81</v>
       </c>
-      <c r="C36" s="17">
+      <c r="C36" s="16">
         <v>81</v>
       </c>
-      <c r="D36" s="17">
+      <c r="D36" s="16">
         <v>81</v>
       </c>
-      <c r="E36" s="17">
+      <c r="E36" s="16">
         <v>81</v>
       </c>
-      <c r="F36" s="17">
+      <c r="F36" s="16">
         <v>81</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="17">
         <v>81</v>
       </c>
-      <c r="H36" s="25"/>
+      <c r="H36" s="23"/>
     </row>
     <row r="37" spans="1:8" ht="17" thickBot="1">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="17">
+      <c r="B37" s="16">
         <v>0.6</v>
       </c>
-      <c r="C37" s="17">
+      <c r="C37" s="16">
         <v>0.37</v>
       </c>
-      <c r="D37" s="17">
+      <c r="D37" s="16">
         <v>0.53</v>
       </c>
-      <c r="E37" s="17">
+      <c r="E37" s="16">
         <v>0.39</v>
       </c>
-      <c r="F37" s="17">
+      <c r="F37" s="16">
         <v>0.64</v>
       </c>
-      <c r="G37" s="18">
+      <c r="G37" s="17">
         <v>0.62</v>
       </c>
-      <c r="H37" s="26"/>
+      <c r="H37" s="24"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
+      <c r="A38" s="29"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5931,891 +5930,891 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E765A947-C049-084A-82F0-AD087F0680A7}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" ht="17" thickBot="1"/>
     <row r="3" spans="1:7" ht="17" thickBot="1">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="14" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" thickBot="1">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="16">
         <v>0.04</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17" thickBot="1">
-      <c r="A5" s="19"/>
-      <c r="B5" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="C5" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="D5" s="17">
-        <v>-0.02</v>
-      </c>
-      <c r="E5" s="17">
-        <v>-0.02</v>
-      </c>
-      <c r="F5" s="17">
-        <v>-0.02</v>
-      </c>
-      <c r="G5" s="18">
+      <c r="A5" s="18"/>
+      <c r="B5" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="C5" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="D5" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="E5" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="F5" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="G5" s="17">
         <v>-0.03</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17" thickBot="1">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="17">
-        <v>0</v>
-      </c>
-      <c r="D6" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="E6" s="17" t="s">
+      <c r="C6" s="16">
+        <v>0</v>
+      </c>
+      <c r="D6" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="E6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="17">
-        <v>0</v>
-      </c>
-      <c r="G6" s="18" t="s">
+      <c r="F6" s="16">
+        <v>0</v>
+      </c>
+      <c r="G6" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17" thickBot="1">
-      <c r="A7" s="19"/>
-      <c r="B7" s="17">
-        <v>0</v>
-      </c>
-      <c r="C7" s="17">
-        <v>0</v>
-      </c>
-      <c r="D7" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="E7" s="17">
-        <v>0</v>
-      </c>
-      <c r="F7" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="G7" s="18" t="s">
+      <c r="A7" s="18"/>
+      <c r="B7" s="16">
+        <v>0</v>
+      </c>
+      <c r="C7" s="16">
+        <v>0</v>
+      </c>
+      <c r="D7" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="E7" s="16">
+        <v>0</v>
+      </c>
+      <c r="F7" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="G7" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17" thickBot="1">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="17">
-        <v>0.01</v>
-      </c>
-      <c r="C8" s="17">
-        <v>0</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="17" t="s">
+      <c r="B8" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="C8" s="16">
+        <v>0</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="17">
         <v>-0.01</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17" thickBot="1">
-      <c r="A9" s="19"/>
-      <c r="B9" s="17">
-        <v>0</v>
-      </c>
-      <c r="C9" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="17">
-        <v>0</v>
-      </c>
-      <c r="F9" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="G9" s="18">
+      <c r="A9" s="18"/>
+      <c r="B9" s="16">
+        <v>0</v>
+      </c>
+      <c r="C9" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="16">
+        <v>0</v>
+      </c>
+      <c r="F9" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="G9" s="17">
         <v>-0.01</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17" thickBot="1">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="17">
-        <v>0</v>
-      </c>
-      <c r="C10" s="17">
-        <v>0.01</v>
-      </c>
-      <c r="D10" s="17" t="s">
+      <c r="B10" s="16">
+        <v>0</v>
+      </c>
+      <c r="C10" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="D10" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="F10" s="17" t="s">
+      <c r="E10" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="F10" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="17">
         <v>-0.02</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17" thickBot="1">
-      <c r="A11" s="19"/>
-      <c r="B11" s="17">
-        <v>0</v>
-      </c>
-      <c r="C11" s="17">
-        <v>0</v>
-      </c>
-      <c r="D11" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="E11" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="F11" s="17" t="s">
+      <c r="A11" s="18"/>
+      <c r="B11" s="16">
+        <v>0</v>
+      </c>
+      <c r="C11" s="16">
+        <v>0</v>
+      </c>
+      <c r="D11" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="E11" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="F11" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="17">
         <v>-0.01</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17" thickBot="1">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="C12" s="17">
-        <v>0</v>
-      </c>
-      <c r="D12" s="17" t="s">
+      <c r="B12" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="C12" s="16">
+        <v>0</v>
+      </c>
+      <c r="D12" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="E12" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="G12" s="18" t="s">
+      <c r="E12" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="G12" s="17" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17" thickBot="1">
-      <c r="A13" s="19"/>
-      <c r="B13" s="17">
-        <v>0</v>
-      </c>
-      <c r="C13" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="D13" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="G13" s="18">
+      <c r="A13" s="18"/>
+      <c r="B13" s="16">
+        <v>0</v>
+      </c>
+      <c r="C13" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="D13" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="G13" s="17">
         <v>-0.01</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17" thickBot="1">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="17">
-        <v>0</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="17">
-        <v>0</v>
-      </c>
-      <c r="E14" s="17">
-        <v>0</v>
-      </c>
-      <c r="F14" s="17">
-        <v>0</v>
-      </c>
-      <c r="G14" s="18">
+      <c r="B14" s="16">
+        <v>0</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="16">
+        <v>0</v>
+      </c>
+      <c r="E14" s="16">
+        <v>0</v>
+      </c>
+      <c r="F14" s="16">
+        <v>0</v>
+      </c>
+      <c r="G14" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="17" thickBot="1">
-      <c r="A15" s="19"/>
-      <c r="B15" s="17">
-        <v>0</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="E15" s="17">
-        <v>0</v>
-      </c>
-      <c r="F15" s="17">
-        <v>0</v>
-      </c>
-      <c r="G15" s="18">
+      <c r="A15" s="18"/>
+      <c r="B15" s="16">
+        <v>0</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="E15" s="16">
+        <v>0</v>
+      </c>
+      <c r="F15" s="16">
+        <v>0</v>
+      </c>
+      <c r="G15" s="17">
         <v>-0.01</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17" thickBot="1">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="17">
-        <v>0</v>
-      </c>
-      <c r="C16" s="17">
-        <v>0</v>
-      </c>
-      <c r="D16" s="17">
-        <v>0</v>
-      </c>
-      <c r="E16" s="17">
-        <v>0</v>
-      </c>
-      <c r="F16" s="17">
-        <v>0.01</v>
-      </c>
-      <c r="G16" s="18">
+      <c r="B16" s="16">
+        <v>0</v>
+      </c>
+      <c r="C16" s="16">
+        <v>0</v>
+      </c>
+      <c r="D16" s="16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="16">
+        <v>0</v>
+      </c>
+      <c r="F16" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="G16" s="17">
         <v>0.01</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="17" thickBot="1">
-      <c r="A17" s="19"/>
-      <c r="B17" s="17">
-        <v>0</v>
-      </c>
-      <c r="C17" s="17">
-        <v>0</v>
-      </c>
-      <c r="D17" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="E17" s="17">
-        <v>0</v>
-      </c>
-      <c r="F17" s="17">
-        <v>0</v>
-      </c>
-      <c r="G17" s="18">
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="17" thickBot="1">
-      <c r="A18" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="17">
-        <v>0.01</v>
-      </c>
-      <c r="C18" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="D18" s="17" t="s">
+      <c r="A17" s="18"/>
+      <c r="B17" s="16">
+        <v>0</v>
+      </c>
+      <c r="C17" s="16">
+        <v>0</v>
+      </c>
+      <c r="D17" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="E17" s="16">
+        <v>0</v>
+      </c>
+      <c r="F17" s="16">
+        <v>0</v>
+      </c>
+      <c r="G17" s="17">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="25" thickBot="1">
+      <c r="A18" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="C18" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="D18" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="16">
         <v>0.02</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="17">
         <v>-0.04</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="17" thickBot="1">
-      <c r="A19" s="19"/>
-      <c r="B19" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="C19" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="D19" s="17">
-        <v>-0.02</v>
-      </c>
-      <c r="E19" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="F19" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="G19" s="18">
+      <c r="A19" s="18"/>
+      <c r="B19" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="C19" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="D19" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="E19" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="F19" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="G19" s="17">
         <v>-0.02</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17" thickBot="1">
-      <c r="A20" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="17">
-        <v>0.01</v>
-      </c>
-      <c r="C20" s="17" t="s">
+      <c r="A20" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="C20" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="17">
-        <v>0</v>
-      </c>
-      <c r="E20" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="F20" s="17">
-        <v>0.01</v>
-      </c>
-      <c r="G20" s="18">
+      <c r="D20" s="16">
+        <v>0</v>
+      </c>
+      <c r="E20" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="F20" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="G20" s="17">
         <v>-0.01</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="17" thickBot="1">
-      <c r="A21" s="19"/>
-      <c r="B21" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="C21" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="D21" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="E21" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="F21" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="G21" s="18">
+      <c r="A21" s="18"/>
+      <c r="B21" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="C21" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="D21" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="E21" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="F21" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="G21" s="17">
         <v>-0.02</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="25" thickBot="1">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="17">
-        <v>0</v>
-      </c>
-      <c r="C22" s="17">
+      <c r="B22" s="16">
+        <v>0</v>
+      </c>
+      <c r="C22" s="16">
         <v>0.02</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="16">
         <v>0.02</v>
       </c>
-      <c r="E22" s="17">
-        <v>-0.02</v>
-      </c>
-      <c r="F22" s="17">
-        <v>0</v>
-      </c>
-      <c r="G22" s="18">
+      <c r="E22" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="F22" s="16">
+        <v>0</v>
+      </c>
+      <c r="G22" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="17" thickBot="1">
-      <c r="A23" s="19"/>
-      <c r="B23" s="17">
-        <v>-0.02</v>
-      </c>
-      <c r="C23" s="17">
-        <v>-0.02</v>
-      </c>
-      <c r="D23" s="17">
+      <c r="A23" s="18"/>
+      <c r="B23" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="C23" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="D23" s="16">
         <v>-0.03</v>
       </c>
-      <c r="E23" s="17">
-        <v>-0.02</v>
-      </c>
-      <c r="F23" s="17">
-        <v>-0.02</v>
-      </c>
-      <c r="G23" s="18">
+      <c r="E23" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="F23" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="G23" s="17">
         <v>-0.04</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="17" thickBot="1">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="17">
-        <v>0.01</v>
-      </c>
-      <c r="C24" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="D24" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="E24" s="17">
-        <v>0</v>
-      </c>
-      <c r="F24" s="17">
+      <c r="B24" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="C24" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="D24" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="E24" s="16">
+        <v>0</v>
+      </c>
+      <c r="F24" s="16">
         <v>0.02</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="17">
         <v>-0.02</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="17" thickBot="1">
-      <c r="A25" s="19"/>
-      <c r="B25" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="C25" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="D25" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="E25" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="F25" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="G25" s="18">
+      <c r="A25" s="18"/>
+      <c r="B25" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="C25" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="D25" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="E25" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="F25" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="G25" s="17">
         <v>-0.02</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="25" thickBot="1">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="17">
+      <c r="B26" s="16">
         <v>0.02</v>
       </c>
-      <c r="C26" s="17">
-        <v>-0.02</v>
-      </c>
-      <c r="D26" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="E26" s="17">
-        <v>0.01</v>
-      </c>
-      <c r="F26" s="17">
-        <v>0.01</v>
-      </c>
-      <c r="G26" s="18">
+      <c r="C26" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="D26" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="E26" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="F26" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="G26" s="17">
         <v>-0.02</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17" thickBot="1">
-      <c r="A27" s="19"/>
-      <c r="B27" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="C27" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="D27" s="17">
-        <v>-0.02</v>
-      </c>
-      <c r="E27" s="17">
-        <v>-0.02</v>
-      </c>
-      <c r="F27" s="17">
-        <v>-0.02</v>
-      </c>
-      <c r="G27" s="18">
+      <c r="A27" s="18"/>
+      <c r="B27" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="C27" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="D27" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="E27" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="F27" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="G27" s="17">
         <v>-0.03</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="25" thickBot="1">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="C28" s="17">
-        <v>0.01</v>
-      </c>
-      <c r="D28" s="17">
-        <v>0.01</v>
-      </c>
-      <c r="E28" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="F28" s="17">
-        <v>-0.02</v>
-      </c>
-      <c r="G28" s="18">
+      <c r="B28" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="C28" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="D28" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="E28" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="F28" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="G28" s="17">
         <v>0.01</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="17" thickBot="1">
-      <c r="A29" s="19"/>
-      <c r="B29" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="C29" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="D29" s="17">
-        <v>-0.02</v>
-      </c>
-      <c r="E29" s="17">
-        <v>-0.02</v>
-      </c>
-      <c r="F29" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="G29" s="18">
-        <v>-0.02</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="17" thickBot="1">
-      <c r="A30" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="17">
-        <v>0.01</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="17">
-        <v>-0.02</v>
-      </c>
-      <c r="E30" s="17">
-        <v>0.01</v>
-      </c>
-      <c r="F30" s="17">
-        <v>0.01</v>
-      </c>
-      <c r="G30" s="18">
+      <c r="A29" s="18"/>
+      <c r="B29" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="C29" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="D29" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="E29" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="F29" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="G29" s="17">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="25" thickBot="1">
+      <c r="A30" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="E30" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="F30" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="G30" s="17">
         <v>0.03</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="17" thickBot="1">
-      <c r="A31" s="19"/>
-      <c r="B31" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="17">
-        <v>-0.02</v>
-      </c>
-      <c r="E31" s="17">
-        <v>-0.02</v>
-      </c>
-      <c r="F31" s="17">
-        <v>-0.02</v>
-      </c>
-      <c r="G31" s="18">
+      <c r="A31" s="18"/>
+      <c r="B31" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="E31" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="F31" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="G31" s="17">
         <v>-0.03</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="17" thickBot="1">
-      <c r="A32" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="17">
-        <v>0</v>
-      </c>
-      <c r="D32" s="17">
-        <v>0.01</v>
-      </c>
-      <c r="E32" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="F32" s="17">
-        <v>0</v>
-      </c>
-      <c r="G32" s="18" t="s">
+      <c r="A32" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="16">
+        <v>0</v>
+      </c>
+      <c r="D32" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="E32" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="F32" s="16">
+        <v>0</v>
+      </c>
+      <c r="G32" s="17" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="17" thickBot="1">
-      <c r="A33" s="19"/>
-      <c r="B33" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="17">
-        <v>0</v>
-      </c>
-      <c r="D33" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="E33" s="17">
-        <v>0</v>
-      </c>
-      <c r="F33" s="17">
-        <v>0</v>
-      </c>
-      <c r="G33" s="18">
+      <c r="A33" s="18"/>
+      <c r="B33" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="16">
+        <v>0</v>
+      </c>
+      <c r="D33" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="E33" s="16">
+        <v>0</v>
+      </c>
+      <c r="F33" s="16">
+        <v>0</v>
+      </c>
+      <c r="G33" s="17">
         <v>-0.01</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="25" thickBot="1">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="17">
-        <v>-0.02</v>
-      </c>
-      <c r="D34" s="17" t="s">
+      <c r="B34" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="D34" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="E34" s="17" t="s">
+      <c r="E34" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="F34" s="17">
+      <c r="F34" s="16">
         <v>0.04</v>
       </c>
-      <c r="G34" s="18" t="s">
+      <c r="G34" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="17" thickBot="1">
-      <c r="A35" s="19"/>
-      <c r="B35" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="D35" s="17">
+      <c r="A35" s="18"/>
+      <c r="B35" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="D35" s="16">
         <v>-0.03</v>
       </c>
-      <c r="E35" s="17">
-        <v>-0.02</v>
-      </c>
-      <c r="F35" s="17">
-        <v>-0.02</v>
-      </c>
-      <c r="G35" s="18" t="s">
+      <c r="E35" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="F35" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="G35" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="25" thickBot="1">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="D36" s="17">
-        <v>0</v>
-      </c>
-      <c r="E36" s="17">
-        <v>0</v>
-      </c>
-      <c r="F36" s="17">
+      <c r="B36" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="D36" s="16">
+        <v>0</v>
+      </c>
+      <c r="E36" s="16">
+        <v>0</v>
+      </c>
+      <c r="F36" s="16">
         <v>0.02</v>
       </c>
-      <c r="G36" s="18" t="s">
+      <c r="G36" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="17" thickBot="1">
-      <c r="A37" s="19"/>
-      <c r="B37" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="D37" s="17">
-        <v>-0.02</v>
-      </c>
-      <c r="E37" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="F37" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="G37" s="18" t="s">
+      <c r="A37" s="18"/>
+      <c r="B37" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="D37" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="E37" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="F37" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="G37" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="25" thickBot="1">
-      <c r="A38" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="E38" s="17">
-        <v>0.01</v>
-      </c>
-      <c r="F38" s="17">
-        <v>0.01</v>
-      </c>
-      <c r="G38" s="18" t="s">
+      <c r="A38" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="E38" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="F38" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="G38" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="17" thickBot="1">
-      <c r="A39" s="19"/>
-      <c r="B39" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" s="17">
-        <v>-0.02</v>
-      </c>
-      <c r="E39" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="F39" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="G39" s="18" t="s">
+      <c r="A39" s="18"/>
+      <c r="B39" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="E39" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="F39" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="G39" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="17" thickBot="1">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="17">
+      <c r="B40" s="16">
         <v>35</v>
       </c>
-      <c r="C40" s="17">
+      <c r="C40" s="16">
         <v>35</v>
       </c>
-      <c r="D40" s="17">
+      <c r="D40" s="16">
         <v>32</v>
       </c>
-      <c r="E40" s="17">
+      <c r="E40" s="16">
         <v>32</v>
       </c>
-      <c r="F40" s="17">
+      <c r="F40" s="16">
         <v>32</v>
       </c>
-      <c r="G40" s="18">
+      <c r="G40" s="17">
         <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="17" thickBot="1">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="17">
+      <c r="B41" s="16">
         <v>0.42</v>
       </c>
-      <c r="C41" s="17">
+      <c r="C41" s="16">
         <v>0.16</v>
       </c>
-      <c r="D41" s="17">
+      <c r="D41" s="16">
         <v>0.78</v>
       </c>
-      <c r="E41" s="17">
+      <c r="E41" s="16">
         <v>0.8</v>
       </c>
-      <c r="F41" s="17">
+      <c r="F41" s="16">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G41" s="18">
+      <c r="G41" s="17">
         <v>0.46</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="20"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
+      <c r="A42" s="19"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6829,41 +6828,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06D3D165-6074-F543-9BD6-D7888FFFE121}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="3" spans="1:7" ht="17" thickBot="1">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="29" t="s">
+      <c r="A3" s="25"/>
+      <c r="B3" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="27" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7486,13 +7485,13 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">
